--- a/整合結果/EPU匯出結果/2025-06-04/2025-06-04_自由時報_EPU檢查結果.xlsx
+++ b/整合結果/EPU匯出結果/2025-06-04/2025-06-04_自由時報_EPU檢查結果.xlsx
@@ -168,12 +168,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$7:$A$8</f>
+              <f>'Sheet1'!$A$10:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$7:$B$8</f>
+              <f>'Sheet1'!$B$10:$B$11</f>
             </numRef>
           </val>
         </ser>
@@ -249,7 +249,7 @@
     <from>
       <col>3</col>
       <colOff>0</colOff>
-      <row>6</row>
+      <row>9</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -559,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,40 +700,136 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-06-04_0920_自由時報_財經_房價泡沫破裂？全美20個大城市房價下跌 專家 _ 最抗跌的「這區」也鬆動了.txt</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>房地產、房價、金融、美元、經濟</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>關稅政策</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>不確定、不確定性、衰退、暴跌</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>統計摘要</t>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-06-04_1238_自由時報_財經_大台北捷運站房租前十低區域 頂埔站以每坪745元最親民.txt</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>經濟</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>擔憂</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>✔ 符合 EPU</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>✘ 不符合 EPU</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-06-04_1256_自由時報_財經_竹北「天坑」事件預售案 百貨樓層以逾162億元移轉.txt</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>不動產、房市、房價、商業、經濟</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>統計摘要</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>✔ 符合 EPU</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>✘ 不符合 EPU</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>EPU 比例</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>33.33%</t>
         </is>
